--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563491.831997877</v>
+        <v>1626500.558116654</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6856467.864221856</v>
+        <v>7252821.04099132</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>30.49859044677629</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.6176215872913</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>125.1185865636304</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208075</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>46.9390753672945</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>66.63697862441943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1136,16 +1138,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>168.7731474775481</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>182.4103722902359</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>217.2105882201154</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1427,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>67.16278375654387</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4741192882438</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.16614128474204</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>23.70783122952592</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.4632684506787</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>52.0765976433801</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2807,7 +2809,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>220.4809030963475</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>153.3149148623384</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904168</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.1843270109962</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.04375511693026</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.9935857372487</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>347.0403396962705</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3791,19 +3793,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3904,10 +3906,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>56.45126254209634</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>170.8294371586815</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>1.448947331648064</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.3435071337996</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48318118750379</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>126.6408577476777</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>104.7043219359393</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>475.2419029331441</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>932.027809635875</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>977.228916131015</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1261.951848555523</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>904.4624336817722</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>508.071083982119</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>500.3914891902704</v>
+        <v>589.8986307648048</v>
       </c>
       <c r="Y2" t="n">
-        <v>138.1514673849256</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662885</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.8681457101576</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>492.8681457101576</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>329.5513728369284</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>329.5513728369284</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1689621665946</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>594.4940582745251</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>985.6798532447758</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1363.171364120812</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.940779286676</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1151.940779286676</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>909.3768827324812</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>683.0341144222233</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>965.3211864711366</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>538.4204564844366</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>519.1682397098409</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>497.2317038981026</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>476.1479261279069</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1790.506820807776</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1385.169550762667</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>932.027809635875</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1388.813716338606</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>539.1691872378251</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>539.1691872378251</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>375.8524143645958</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>308.5423349459903</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1040.36435937557</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>765.5119555480831</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>765.5119555480831</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.1691872378251</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>696.5631795490544</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>673.7028536027586</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>654.4506368281629</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>228.4736969760205</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>207.3899192058248</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1482.877419510889</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1125.388004637139</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1125.388004637139</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1117.70840984529</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1116.411543840584</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331441</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>475.2419029331441</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>932.027809635875</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.6531238416347</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6805607205508</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6805607205508</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1614.308108425241</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1334.123659925546</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.412192533575</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>777.5597887060876</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>534.9958921518927</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>308.6531238416347</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1049.778315921866</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1049.778315921866</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>830.3736813560932</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>787.9925577384986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1684.985148555618</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2530.12979870643</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645793</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.963950258506</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1469.626680213396</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>72.48424976299953</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>275.4928852935398</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.433586990954</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>338.46102386987</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>338.46102386987</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>172.2528180227235</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>172.2528180227235</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2528180227235</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1444.358624394959</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.506220567472</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>926.9423240132776</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.5995557030196</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1461.498314754119</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1461.498314754119</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.205693939119</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>612.2287540869769</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>187.1045722763771</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>1953.232223959333</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1953.232223959333</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.232223959333</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2798.376874110145</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2286.683949090759</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1881.346679045649</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>902.1599794416873</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>902.1599794416873</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1799.152570258806</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407.7735857573128</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>235.8010226362288</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>72.48424976299951</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.19982010864</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.488352716669</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>955.6359488891819</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>713.072052334987</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.7292840247291</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1782.102586447038</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.102586447038</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4017.903765402536</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>3845.931202281452</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>3682.614429408222</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>3516.406223561076</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>4800.810404932252</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>4519.098937540281</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>4244.246533712793</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>4244.246533712793</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>4017.903765402536</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3666.855944130192</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>3494.883381009108</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>3494.883381009108</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4374.43821322394</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4099.585809396453</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>3857.021912842258</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>3857.021912842258</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,19 +5992,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6014,10 +6016,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.5090203395509</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>534.5364572184669</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>534.5364572184669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6187,10 +6189,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>932.8517886498089</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.5090203395509</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6230,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6315,13 +6317,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>154.4092158344085</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6424,10 +6426,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.2177258288816</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>584.2177258288816</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1889.872710412488</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1609.688261912793</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1327.976794520821</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1053.124390693334</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>810.5604941391396</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.2177258288816</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6706,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3901.026184387726</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3746.162634021728</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>3582.845861148498</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4834.951221791732</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4560.098817964245</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>4317.53492141005</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>4091.192153099792</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6931,34 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7020,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1446.844867123559</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3854.586992529306</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>3682.614429408222</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5075.555541997492</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5075.555541997492</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>5075.555541997492</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4795.371093497796</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4513.659626105825</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4513.659626105825</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4271.09572955163</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>4044.752961241372</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>456.2068044646694</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1171.715112440168</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2101.340160059445</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3105.626261478503</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>1537.033091018986</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>1537.033091018986</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.033091018986</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3754.818424269582</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>3582.845861148498</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>3582.845861148498</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>3416.637655301351</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>3244.775881075911</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810561</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036461</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536766</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144794</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>3864.912955317307</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>3864.912955317307</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3754.818424269582</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.304650282887</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2009.403920296188</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.111299481188</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1160.134359629045</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1332.080299397014</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2229.072890214133</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2915.933208992047</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149975</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149975</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.845194023115</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3261.490284619527</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3261.490284619527</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3261.490284619527</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3261.490284619527</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2856.153014574418</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.4842497629995</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.4842497629995</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3804814434843</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>984.1792895263904</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>984.1792895263904</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.4084025814685</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>817.4358394603845</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>654.1190665871552</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>487.9108607400087</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>316.0490865145691</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145691</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.723616382436</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.702139067187</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1696.990671675216</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1422.138267847729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>1179.574371293534</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>1179.574371293534</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1407.267730795616</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1407.267730795616</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.4842497629995</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>72.4842497629995</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>969.4768405801183</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.469431397237</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2763.462022214356</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3608.606672365168</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149975</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664161</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.173363964508</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2232.453365132255</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1827.116095087146</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>72.4842497629995</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>72.4842497629995</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2830578459057</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>1806.275648663024</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>1806.275648663024</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1806.275648663024</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1949.589993678482</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>1949.589993678482</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>1948.126410515201</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>1781.918204668054</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>1610.056430442615</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>1443.799460736847</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>1443.799460736847</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>1443.799460736847</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>1501.290788961005</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>1727.818390166842</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>2082.507711461263</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>2473.693506431513</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>2851.185017307549</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>3206.613145987312</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>3497.212357909213</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3577.173874837148</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>3407.038827356283</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>3163.699479582183</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>2883.515031082487</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>2883.515031082487</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>2608.662627255</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>2366.098730700805</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>2139.755962390547</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>112.2559661033163</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>501.6614210774818</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477953</v>
+        <v>131.7781250670417</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>298.2451602832801</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4449756170225</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>465.2725720398026</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,16 +8376,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>384.8453003067499</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>465.2725720398026</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>682.0169880116082</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4022560221682</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>849.0556862749856</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8945,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>586.1294709557413</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510356</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3756766890881</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9248,22 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.9366923690798</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9489,19 +9491,19 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>58.21512474482097</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9963,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>535.9688468101303</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>386.8988393430016</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
@@ -10911,10 +10913,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
-        <v>318.0587007147971</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701166</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>731.1892611518972</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>98.05199310655033</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701166</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369255</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719398</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>53.3388120979151</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,31 +11375,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498217</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>97.42360047804561</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>201.8491063867343</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>211.7315689615075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>286.821552498202</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23668,10 +23670,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>253.6747727851728</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044161</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>87.08285533799628</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>188.0616599452728</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.42505120001147</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.9379226275347</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796685</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.383900168702382</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.0857548899067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>73.83260029622329</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9313414726024</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>248.2302574481681</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>160.2346578128489</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>599960.8240845281</v>
+        <v>601796.6788460996</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>599960.8240845281</v>
+        <v>607740.7738040957</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>599960.8240845281</v>
+        <v>607740.7738040957</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>504405.956503049</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504405.9565030491</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634407.0300860112</v>
+        <v>634407.0300860113</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634407.0300860113</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504405.9565030489</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>504405.9565030489</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
+        <v>480515.2011092093</v>
+      </c>
+      <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
-      <c r="D2" t="n">
-        <v>480515.2011092093</v>
-      </c>
       <c r="E2" t="n">
-        <v>368683.8431932275</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="F2" t="n">
-        <v>368683.8431932275</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="H2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="H2" t="n">
-        <v>463675.0825883938</v>
-      </c>
       <c r="I2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="J2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883936</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="N2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="O2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="P2" t="n">
         <v>463675.0825883938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>463675.0825883939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>368683.8431932275</v>
-      </c>
-      <c r="P2" t="n">
-        <v>368683.8431932275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222411.617985748</v>
+        <v>219126.275013497</v>
       </c>
       <c r="C4" t="n">
-        <v>222411.617985748</v>
+        <v>208489.0552260627</v>
       </c>
       <c r="D4" t="n">
-        <v>222411.617985748</v>
+        <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>91657.00479544542</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
-        <v>91657.00479544539</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
         <v>115328.9674438159</v>
@@ -26454,10 +26456,10 @@
         <v>115328.9674438159</v>
       </c>
       <c r="O4" t="n">
-        <v>91657.00479544539</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="P4" t="n">
-        <v>91657.00479544539</v>
+        <v>115328.9674438159</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41797.14823511275</v>
+        <v>36223.00720396001</v>
       </c>
       <c r="C6" t="n">
-        <v>196422.8688532331</v>
+        <v>181173.0611721062</v>
       </c>
       <c r="D6" t="n">
-        <v>196422.868853233</v>
+        <v>204579.8948457185</v>
       </c>
       <c r="E6" t="n">
-        <v>89175.14056830063</v>
+        <v>54856.69639950764</v>
       </c>
       <c r="F6" t="n">
-        <v>221938.8085779026</v>
+        <v>270596.0529561484</v>
       </c>
       <c r="G6" t="n">
-        <v>168436.1328618384</v>
+        <v>270596.0529561482</v>
       </c>
       <c r="H6" t="n">
-        <v>270596.0529561482</v>
+        <v>270596.0529561483</v>
       </c>
       <c r="I6" t="n">
-        <v>270596.0529561481</v>
+        <v>270596.0529561483</v>
       </c>
       <c r="J6" t="n">
-        <v>149873.5360133915</v>
+        <v>144018.7843758596</v>
       </c>
       <c r="K6" t="n">
-        <v>270596.0529561482</v>
+        <v>251949.4525991282</v>
       </c>
       <c r="L6" t="n">
         <v>270596.0529561482</v>
       </c>
       <c r="M6" t="n">
-        <v>159786.6928470148</v>
+        <v>90532.18150098044</v>
       </c>
       <c r="N6" t="n">
-        <v>270596.0529561484</v>
+        <v>270596.0529561482</v>
       </c>
       <c r="O6" t="n">
-        <v>221938.8085779024</v>
+        <v>270596.0529561483</v>
       </c>
       <c r="P6" t="n">
-        <v>221938.8085779026</v>
+        <v>270596.0529561482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>390.3743495457175</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.66627575736726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>45.02456991955478</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938913</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>306.9754453577185</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>97.90914516425555</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27858,16 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>231.5225243088978</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28062,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>58.49558200612313</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>76.49136530850691</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>464.23015817805</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255731</v>
+        <v>108.6062353448195</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>276.3264003875789</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,16 +35096,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.0963993311495</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>442.7574853255731</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>644.4416262013768</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>810.7436438423628</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35665,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>563.6143842415117</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374939</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>512.8720662978023</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.4788798574151</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
@@ -37631,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
-        <v>294.8868109925749</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374937</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374937</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>693.7983017958732</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.65275927321699</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374937</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374937</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374937</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>15.7634502876838</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>75.65275927321696</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626500.558116654</v>
+        <v>1625803.896911563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7252821.04099132</v>
+        <v>7252821.040991322</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677629</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>71.32379468894563</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>11.5235204003851</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208075</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>357.7090763209833</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>168.3853228702227</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>3.224995933139545e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>14.26000286531514</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1618,10 +1618,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439311</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>174.6149977155482</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056416</v>
+        <v>24.06717281892101</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642052892</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>53.25551766955362</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>89.16093673830196</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.24387488545309</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040147027</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2845,7 +2845,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458141</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3006,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>146.6663256246501</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>16.97279502168107</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536219</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904168</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>100.4699880475115</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693026</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>262.5094713195863</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3954,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>164.677797159722</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>38.74533713701027</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>422.0020284912555</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>399.1417025449597</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476777</v>
+        <v>379.889485770364</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359393</v>
+        <v>357.9529499586257</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899353</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347455</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347455</v>
+        <v>882.5260259873583</v>
       </c>
       <c r="M2" t="n">
-        <v>977.228916131015</v>
+        <v>882.5260259873583</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.5260259873583</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.5260259873583</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1863.062527556331</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1863.062527556331</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1604.707618152743</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1247.218203278993</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>850.8268535793399</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648048</v>
+        <v>439.1068547470871</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>437.8099887423814</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
         <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762484</v>
+        <v>822.2860546829163</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
         <v>620.3857159750945</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
         <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.4019879271593</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974101</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773446</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1436.221636430209</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1436.221636430209</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1193.657739876014</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>967.3149715657564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1218.076748025826</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4783,10 +4783,10 @@
         <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5053,25 +5053,25 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,28 +5117,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
         <v>1828.971033901635</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1759.191944545158</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5357,28 +5357,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>874.6155644060643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>702.6430012849803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>702.6430012849803</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>536.4347954378338</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
         <v>268.5596831115964</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1985.582940853388</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1703.871473461417</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5992,22 +5992,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6016,10 +6016,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>1109.288418485209</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>937.3158553641247</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>773.9990824908954</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>607.7908766437489</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>435.9291024183093</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6183,16 +6183,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>1299.454387197274</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>326.3817789554884</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>326.3817789554884</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>326.3817789554884</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>326.3817789554884</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>326.3817789554884</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>160.1248092497206</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6417,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751465</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359494</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320069</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>742.890515977812</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>516.5477476675541</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6493,19 +6493,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1446.241138075242</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I32" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J32" t="n">
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6767,40 +6767,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G33" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
         <v>159.7940416299866</v>
@@ -6864,7 +6864,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M34" t="n">
         <v>1132.196759100495</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6943,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778161</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045868</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574403</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574403</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1276.857201610473</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1002.004797782986</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>1002.004797782986</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>775.6620294727279</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,37 +7399,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7447,7 +7447,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
         <v>3777.607131232208</v>
@@ -7490,16 +7490,16 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N42" t="n">
         <v>1364.825557038856</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7651,25 +7651,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,10 +7684,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>961.5351989759104</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>40.61659560001377</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774818</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>48.85522789280034</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675095</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670417</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978872</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8549,10 +8549,10 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8701,7 +8701,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,7 +8941,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>384.5745552399217</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858341</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>163.6072147261337</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116024</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,19 +11138,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1014.65485790195</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>257.843876923897</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>49.46434291160722</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262102</v>
+        <v>146.0759836642642</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044161</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.1270863451451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>75.43346327040823</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>85.11443092147405</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>130.7162783900486</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.1654625669719</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796685</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.6682695411414</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080147</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.38488139846504</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>59.40154346743341</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>149.5189718879347</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601796.6788460996</v>
+        <v>601796.6788460998</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634407.0300860112</v>
+        <v>634407.0300860113</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634407.0300860112</v>
+        <v>634407.0300860113</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634407.0300860113</v>
+        <v>634407.0300860112</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634407.0300860112</v>
+        <v>634407.0300860113</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634407.0300860112</v>
+        <v>634407.0300860113</v>
       </c>
     </row>
     <row r="13">
@@ -26316,31 +26316,31 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
+        <v>480515.2011092094</v>
+      </c>
+      <c r="D2" t="n">
         <v>480515.2011092093</v>
       </c>
-      <c r="D2" t="n">
-        <v>480515.2011092094</v>
-      </c>
       <c r="E2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="F2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="F2" t="n">
-        <v>463675.082588394</v>
-      </c>
       <c r="G2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="H2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="H2" t="n">
-        <v>463675.0825883939</v>
-      </c>
       <c r="I2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883936</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
@@ -26352,7 +26352,7 @@
         <v>463675.0825883937</v>
       </c>
       <c r="O2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="P2" t="n">
         <v>463675.0825883938</v>
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.275013497</v>
+        <v>219126.2750134969</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26499,7 +26499,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="M5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36223.00720396001</v>
+        <v>36223.00720395994</v>
       </c>
       <c r="C6" t="n">
-        <v>181173.0611721062</v>
+        <v>181173.0611721064</v>
       </c>
       <c r="D6" t="n">
-        <v>204579.8948457185</v>
+        <v>204579.8948457184</v>
       </c>
       <c r="E6" t="n">
-        <v>54856.69639950764</v>
+        <v>54805.66573732348</v>
       </c>
       <c r="F6" t="n">
-        <v>270596.0529561484</v>
+        <v>270545.0222939639</v>
       </c>
       <c r="G6" t="n">
-        <v>270596.0529561482</v>
+        <v>270545.0222939641</v>
       </c>
       <c r="H6" t="n">
-        <v>270596.0529561483</v>
+        <v>270545.0222939639</v>
       </c>
       <c r="I6" t="n">
-        <v>270596.0529561483</v>
+        <v>270545.0222939638</v>
       </c>
       <c r="J6" t="n">
-        <v>144018.7843758596</v>
+        <v>143967.7537136751</v>
       </c>
       <c r="K6" t="n">
-        <v>251949.4525991282</v>
+        <v>251898.4219369441</v>
       </c>
       <c r="L6" t="n">
-        <v>270596.0529561482</v>
+        <v>270545.0222939639</v>
       </c>
       <c r="M6" t="n">
-        <v>90532.18150098044</v>
+        <v>90481.15083879624</v>
       </c>
       <c r="N6" t="n">
-        <v>270596.0529561482</v>
+        <v>270545.0222939638</v>
       </c>
       <c r="O6" t="n">
-        <v>270596.0529561483</v>
+        <v>270545.0222939639</v>
       </c>
       <c r="P6" t="n">
-        <v>270596.0529561482</v>
+        <v>270545.0222939639</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572626</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>390.3743495457175</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.99982649664537</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>176.7407886245599</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938913</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,13 +27675,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>34.71835988167322</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>71.7529347184302</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.1704573377096494</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28338,10 +28338,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.360392837795221e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29489,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-3.993567224040755e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.56674739427399e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.049968313764015e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-9.224832392215706e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.304553167390843</v>
       </c>
       <c r="M2" t="n">
-        <v>464.23015817805</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>25.75844738047236</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448195</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408751</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029115</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35421,7 +35421,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,7 +35661,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>706.646375151388</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>142.264186512592</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013711</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,19 +37858,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
